--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56281.44272926993</v>
+        <v>11173952.78484766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56281.44272926993</v>
+        <v>11173952.78484766</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39844.18049333916</v>
+        <v>4782426.033435906</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39844.18049333916</v>
+        <v>4782426.033435906</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610218127.737389</v>
+        <v>62988758.40659765</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13441.24450355181</v>
+        <v>1474025.602445915</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25915.44751710084</v>
+        <v>2796371.494795139</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38389.65053064987</v>
+        <v>4118717.387144365</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52666.69129807839</v>
+        <v>5198618.534235967</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65656.10626719658</v>
+        <v>6450223.475371353</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78645.5212363148</v>
+        <v>7701828.416506729</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91762.26246983705</v>
+        <v>9039465.640318634</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104757.9984508333</v>
+        <v>10353022.81887816</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118909.8356219776</v>
+        <v>11405104.69662528</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131455.1808758666</v>
+        <v>12720858.65037057</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144000.5261297555</v>
+        <v>14036612.60411585</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>156545.8713836445</v>
+        <v>15352366.55786115</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>169091.2166375341</v>
+        <v>16668120.51160636</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184042.0155893704</v>
+        <v>17659262.71512656</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>203828.7178034754</v>
+        <v>17948661.26366628</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>250.9999999999843</v>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>7.975270469905808e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>191</v>
